--- a/FedExApplication/src/TestFiles/FedExShipments_PreProd.xlsx
+++ b/FedExApplication/src/TestFiles/FedExShipments_PreProd.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
+    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="129">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -305,6 +305,102 @@
   </si>
   <si>
     <t>320018580323</t>
+  </si>
+  <si>
+    <t>320017959447</t>
+  </si>
+  <si>
+    <t>320017959458</t>
+  </si>
+  <si>
+    <t>320017959480</t>
+  </si>
+  <si>
+    <t>320017959506</t>
+  </si>
+  <si>
+    <t>320017959540</t>
+  </si>
+  <si>
+    <t>320017959561</t>
+  </si>
+  <si>
+    <t>320017959594</t>
+  </si>
+  <si>
+    <t>320017959610</t>
+  </si>
+  <si>
+    <t>320017959642</t>
+  </si>
+  <si>
+    <t>320017959664</t>
+  </si>
+  <si>
+    <t>320017959701</t>
+  </si>
+  <si>
+    <t>320017959723</t>
+  </si>
+  <si>
+    <t>320017959756</t>
+  </si>
+  <si>
+    <t>320017959778</t>
+  </si>
+  <si>
+    <t>320017959804</t>
+  </si>
+  <si>
+    <t>320017959826</t>
+  </si>
+  <si>
+    <t>$85.66</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>320017959860</t>
+  </si>
+  <si>
+    <t>320017959881</t>
+  </si>
+  <si>
+    <t>320017959918</t>
+  </si>
+  <si>
+    <t>320017959930</t>
+  </si>
+  <si>
+    <t>$233.07</t>
+  </si>
+  <si>
+    <t>320017959962</t>
+  </si>
+  <si>
+    <t>$476.72</t>
+  </si>
+  <si>
+    <t>320017959973</t>
+  </si>
+  <si>
+    <t>$306.68</t>
+  </si>
+  <si>
+    <t>320017959984</t>
+  </si>
+  <si>
+    <t>320017959995</t>
+  </si>
+  <si>
+    <t>320017960006</t>
+  </si>
+  <si>
+    <t>320017960304</t>
+  </si>
+  <si>
+    <t>320017960315</t>
   </si>
 </sst>
 </file>
@@ -368,33 +464,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="8" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="8" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -447,7 +543,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -461,10 +557,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -622,7 +718,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -631,13 +727,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -647,7 +743,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -656,7 +752,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -665,7 +761,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -675,12 +771,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -711,7 +807,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -730,7 +826,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -742,8 +838,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
@@ -751,20 +847,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.140625" style="2" collapsed="1"/>
-    <col min="19" max="19" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="18" max="18" style="2" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="35.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -868,8 +964,8 @@
       <c r="O2" s="3">
         <v>1</v>
       </c>
-      <c r="P2">
-        <v>320018579180</v>
+      <c r="P2" t="s">
+        <v>128</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -922,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="Q3" t="s">
         <v>55</v>
@@ -975,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="Q4" t="s">
         <v>56</v>
@@ -1028,7 +1124,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="Q5" t="s">
         <v>57</v>
@@ -1081,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="Q6" t="s">
         <v>58</v>
@@ -1134,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -1187,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -1240,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="Q9" t="s">
         <v>59</v>
@@ -1293,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="Q10" t="s">
         <v>55</v>
@@ -1346,7 +1442,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="Q11" t="s">
         <v>60</v>
@@ -1399,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="Q12" t="s">
         <v>61</v>
@@ -1452,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="Q13" t="s">
         <v>62</v>
@@ -1505,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="Q14" t="s">
         <v>63</v>
@@ -1558,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="Q15" t="s">
         <v>64</v>
@@ -1611,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="Q16" t="s">
         <v>56</v>
@@ -1664,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="Q17" t="s">
         <v>65</v>
@@ -1717,13 +1813,13 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="Q18" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="R18" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="S18" s="3"/>
     </row>
@@ -1770,7 +1866,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="Q19" t="s">
         <v>66</v>
@@ -1823,13 +1919,13 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="Q20" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="R20" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="S20" s="3"/>
     </row>
@@ -1876,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="Q21" t="s">
         <v>68</v>
@@ -1929,13 +2025,13 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="Q22" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="R22" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="S22" s="3"/>
     </row>
@@ -1982,13 +2078,13 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="Q23" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="R23" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="S23" s="3"/>
     </row>
@@ -2035,13 +2131,13 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="Q24" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="R24" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="S24" s="3"/>
     </row>
@@ -2088,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="Q25" t="s">
         <v>61</v>
@@ -2141,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="Q26" t="s">
         <v>72</v>
@@ -2153,35 +2249,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R2:R7">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule dxfId="6" operator="equal" priority="7" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R24 R27:R1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule dxfId="5" operator="equal" priority="5" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule dxfId="4" operator="equal" priority="6" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule dxfId="3" operator="equal" priority="3" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule dxfId="2" operator="equal" priority="4" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FedExApplication/src/TestFiles/FedExShipments_PreProd.xlsx
+++ b/FedExApplication/src/TestFiles/FedExShipments_PreProd.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
+    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="160">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -217,190 +217,283 @@
     <t>$53.93</t>
   </si>
   <si>
-    <t>$62.39</t>
-  </si>
-  <si>
     <t>$111.04</t>
   </si>
   <si>
-    <t>$223.37</t>
-  </si>
-  <si>
-    <t>$436.98</t>
-  </si>
-  <si>
-    <t>$278.12</t>
-  </si>
-  <si>
     <t>$1,171.41</t>
   </si>
   <si>
-    <t>320018579216</t>
-  </si>
-  <si>
-    <t>320018579282</t>
-  </si>
-  <si>
-    <t>320018579308</t>
-  </si>
-  <si>
-    <t>320018579363</t>
-  </si>
-  <si>
-    <t>320018579411</t>
-  </si>
-  <si>
-    <t>320018579477</t>
-  </si>
-  <si>
-    <t>320018579525</t>
-  </si>
-  <si>
-    <t>320018579570</t>
-  </si>
-  <si>
-    <t>320018579639</t>
-  </si>
-  <si>
-    <t>320018579694</t>
-  </si>
-  <si>
-    <t>320018579742</t>
-  </si>
-  <si>
-    <t>320018579797</t>
-  </si>
-  <si>
-    <t>320018579845</t>
-  </si>
-  <si>
-    <t>320018579904</t>
-  </si>
-  <si>
-    <t>320018579981</t>
-  </si>
-  <si>
-    <t>320018580047</t>
-  </si>
-  <si>
-    <t>320018580106</t>
-  </si>
-  <si>
-    <t>320018580150</t>
-  </si>
-  <si>
-    <t>320018580209</t>
-  </si>
-  <si>
-    <t>320018580242</t>
-  </si>
-  <si>
-    <t>320018580275</t>
-  </si>
-  <si>
-    <t>320018580297</t>
-  </si>
-  <si>
-    <t>320018580312</t>
-  </si>
-  <si>
-    <t>320018580323</t>
-  </si>
-  <si>
-    <t>320017959447</t>
-  </si>
-  <si>
-    <t>320017959458</t>
-  </si>
-  <si>
-    <t>320017959480</t>
-  </si>
-  <si>
-    <t>320017959506</t>
-  </si>
-  <si>
-    <t>320017959540</t>
-  </si>
-  <si>
-    <t>320017959561</t>
-  </si>
-  <si>
-    <t>320017959594</t>
-  </si>
-  <si>
-    <t>320017959610</t>
-  </si>
-  <si>
-    <t>320017959642</t>
-  </si>
-  <si>
-    <t>320017959664</t>
-  </si>
-  <si>
-    <t>320017959701</t>
-  </si>
-  <si>
-    <t>320017959723</t>
-  </si>
-  <si>
-    <t>320017959756</t>
-  </si>
-  <si>
-    <t>320017959778</t>
-  </si>
-  <si>
-    <t>320017959804</t>
-  </si>
-  <si>
-    <t>320017959826</t>
-  </si>
-  <si>
     <t>$85.66</t>
   </si>
   <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>320017959860</t>
-  </si>
-  <si>
-    <t>320017959881</t>
-  </si>
-  <si>
-    <t>320017959918</t>
-  </si>
-  <si>
-    <t>320017959930</t>
-  </si>
-  <si>
     <t>$233.07</t>
   </si>
   <si>
-    <t>320017959962</t>
-  </si>
-  <si>
     <t>$476.72</t>
   </si>
   <si>
-    <t>320017959973</t>
-  </si>
-  <si>
     <t>$306.68</t>
   </si>
   <si>
-    <t>320017959984</t>
-  </si>
-  <si>
-    <t>320017959995</t>
-  </si>
-  <si>
-    <t>320017960006</t>
-  </si>
-  <si>
-    <t>320017960304</t>
-  </si>
-  <si>
-    <t>320017960315</t>
+    <t>320017960348</t>
+  </si>
+  <si>
+    <t>320017960359</t>
+  </si>
+  <si>
+    <t>320017960381</t>
+  </si>
+  <si>
+    <t>320017960407</t>
+  </si>
+  <si>
+    <t>320017960462</t>
+  </si>
+  <si>
+    <t>320017960484</t>
+  </si>
+  <si>
+    <t>320017960521</t>
+  </si>
+  <si>
+    <t>320017960543</t>
+  </si>
+  <si>
+    <t>320017960576</t>
+  </si>
+  <si>
+    <t>320017960598</t>
+  </si>
+  <si>
+    <t>320017960635</t>
+  </si>
+  <si>
+    <t>320017960657</t>
+  </si>
+  <si>
+    <t>320017960680</t>
+  </si>
+  <si>
+    <t>320017960716</t>
+  </si>
+  <si>
+    <t>320017960749</t>
+  </si>
+  <si>
+    <t>320017960760</t>
+  </si>
+  <si>
+    <t>320017960808</t>
+  </si>
+  <si>
+    <t>320017960820</t>
+  </si>
+  <si>
+    <t>320017960852</t>
+  </si>
+  <si>
+    <t>320017960874</t>
+  </si>
+  <si>
+    <t>320017960900</t>
+  </si>
+  <si>
+    <t>320017960911</t>
+  </si>
+  <si>
+    <t>320017960933</t>
+  </si>
+  <si>
+    <t>320017960944</t>
+  </si>
+  <si>
+    <t>320017960955</t>
+  </si>
+  <si>
+    <t>320017960977</t>
+  </si>
+  <si>
+    <t>320017960988</t>
+  </si>
+  <si>
+    <t>320017961013</t>
+  </si>
+  <si>
+    <t>320017961035</t>
+  </si>
+  <si>
+    <t>320017961079</t>
+  </si>
+  <si>
+    <t>320017961090</t>
+  </si>
+  <si>
+    <t>320017961127</t>
+  </si>
+  <si>
+    <t>320017961149</t>
+  </si>
+  <si>
+    <t>320017961171</t>
+  </si>
+  <si>
+    <t>320017961193</t>
+  </si>
+  <si>
+    <t>320017961230</t>
+  </si>
+  <si>
+    <t>320017961263</t>
+  </si>
+  <si>
+    <t>320017961285</t>
+  </si>
+  <si>
+    <t>320017961311</t>
+  </si>
+  <si>
+    <t>320017961333</t>
+  </si>
+  <si>
+    <t>320017961377</t>
+  </si>
+  <si>
+    <t>320017961399</t>
+  </si>
+  <si>
+    <t>320017961425</t>
+  </si>
+  <si>
+    <t>320017961447</t>
+  </si>
+  <si>
+    <t>320017961470</t>
+  </si>
+  <si>
+    <t>320017961491</t>
+  </si>
+  <si>
+    <t>320017961539</t>
+  </si>
+  <si>
+    <t>320017961550</t>
+  </si>
+  <si>
+    <t>320017961583</t>
+  </si>
+  <si>
+    <t>320017961609</t>
+  </si>
+  <si>
+    <t>320017961631</t>
+  </si>
+  <si>
+    <t>320017961653</t>
+  </si>
+  <si>
+    <t>320017961697</t>
+  </si>
+  <si>
+    <t>320017961712</t>
+  </si>
+  <si>
+    <t>320017961745</t>
+  </si>
+  <si>
+    <t>320017961767</t>
+  </si>
+  <si>
+    <t>320017961790</t>
+  </si>
+  <si>
+    <t>320017961826</t>
+  </si>
+  <si>
+    <t>320017961837</t>
+  </si>
+  <si>
+    <t>320017961848</t>
+  </si>
+  <si>
+    <t>320017961859</t>
+  </si>
+  <si>
+    <t>320017961973</t>
+  </si>
+  <si>
+    <t>320017961984</t>
+  </si>
+  <si>
+    <t>320017962010</t>
+  </si>
+  <si>
+    <t>320017962031</t>
+  </si>
+  <si>
+    <t>320017962075</t>
+  </si>
+  <si>
+    <t>320017962097</t>
+  </si>
+  <si>
+    <t>320017962123</t>
+  </si>
+  <si>
+    <t>320017962145</t>
+  </si>
+  <si>
+    <t>320017962178</t>
+  </si>
+  <si>
+    <t>320017962190</t>
+  </si>
+  <si>
+    <t>320017962237</t>
+  </si>
+  <si>
+    <t>320017962259</t>
+  </si>
+  <si>
+    <t>320017962281</t>
+  </si>
+  <si>
+    <t>320017962307</t>
+  </si>
+  <si>
+    <t>320017962330</t>
+  </si>
+  <si>
+    <t>320017962351</t>
+  </si>
+  <si>
+    <t>320017962395</t>
+  </si>
+  <si>
+    <t>320017962410</t>
+  </si>
+  <si>
+    <t>320017962443</t>
+  </si>
+  <si>
+    <t>320017962465</t>
+  </si>
+  <si>
+    <t>320017962498</t>
+  </si>
+  <si>
+    <t>320017962502</t>
+  </si>
+  <si>
+    <t>320017962513</t>
+  </si>
+  <si>
+    <t>320017962524</t>
+  </si>
+  <si>
+    <t>320017962535</t>
   </si>
 </sst>
 </file>
@@ -464,33 +557,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="8" xfId="0">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="8" xfId="0">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -543,7 +636,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -557,10 +650,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -718,7 +811,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -727,13 +820,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -743,7 +836,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -752,7 +845,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -761,7 +854,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -771,12 +864,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -807,7 +900,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -826,7 +919,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -838,11 +931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -965,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -1018,7 +1111,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="Q3" t="s">
         <v>55</v>
@@ -1071,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="Q4" t="s">
         <v>56</v>
@@ -1124,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="Q5" t="s">
         <v>57</v>
@@ -1177,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="Q6" t="s">
         <v>58</v>
@@ -1230,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -1283,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -1336,7 +1429,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="Q9" t="s">
         <v>59</v>
@@ -1389,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="Q10" t="s">
         <v>55</v>
@@ -1442,7 +1535,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="Q11" t="s">
         <v>60</v>
@@ -1495,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="Q12" t="s">
         <v>61</v>
@@ -1548,7 +1641,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="Q13" t="s">
         <v>62</v>
@@ -1601,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="Q14" t="s">
         <v>63</v>
@@ -1654,7 +1747,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="Q15" t="s">
         <v>64</v>
@@ -1707,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="Q16" t="s">
         <v>56</v>
@@ -1760,7 +1853,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="Q17" t="s">
         <v>65</v>
@@ -1803,8 +1896,8 @@
       <c r="L18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M18" s="8">
-        <v>43.36</v>
+      <c r="M18" t="s">
+        <v>69</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>40</v>
@@ -1813,13 +1906,13 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="Q18" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="R18" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="S18" s="3"/>
     </row>
@@ -1856,8 +1949,8 @@
       <c r="L19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M19" s="8">
-        <v>53.93</v>
+      <c r="M19" t="s">
+        <v>66</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>40</v>
@@ -1866,7 +1959,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="Q19" t="s">
         <v>66</v>
@@ -1909,8 +2002,8 @@
       <c r="L20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="8">
-        <v>62.39</v>
+      <c r="M20" t="s">
+        <v>69</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>40</v>
@@ -1919,13 +2012,13 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="Q20" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="R20" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="S20" s="3"/>
     </row>
@@ -1962,8 +2055,8 @@
       <c r="L21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M21" s="8">
-        <v>111.04</v>
+      <c r="M21" t="s">
+        <v>67</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>40</v>
@@ -1972,10 +2065,10 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="Q21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R21" t="s">
         <v>54</v>
@@ -2015,8 +2108,8 @@
       <c r="L22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="10">
-        <v>223.37</v>
+      <c r="M22" t="s">
+        <v>71</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>42</v>
@@ -2025,13 +2118,13 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="Q22" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="R22" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="S22" s="3"/>
     </row>
@@ -2068,8 +2161,8 @@
       <c r="L23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="10">
-        <v>436.98</v>
+      <c r="M23" t="s">
+        <v>72</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>42</v>
@@ -2078,13 +2171,13 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="Q23" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="R23" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="S23" s="3"/>
     </row>
@@ -2121,8 +2214,8 @@
       <c r="L24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="10">
-        <v>278.12</v>
+      <c r="M24" t="s">
+        <v>73</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>43</v>
@@ -2131,13 +2224,13 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="Q24" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="R24" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="S24" s="3"/>
     </row>
@@ -2184,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="Q25" t="s">
         <v>61</v>
@@ -2237,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="Q26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="R26" t="s">
         <v>54</v>
@@ -2249,35 +2342,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R2:R7">
-    <cfRule dxfId="6" operator="equal" priority="7" type="cellIs">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R24 R27:R1048576">
-    <cfRule dxfId="5" operator="equal" priority="5" type="cellIs">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule dxfId="4" operator="equal" priority="6" type="cellIs">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25">
-    <cfRule dxfId="3" operator="equal" priority="3" type="cellIs">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule dxfId="2" operator="equal" priority="4" type="cellIs">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R26">
-    <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FedExApplication/src/TestFiles/FedExShipments_PreProd.xlsx
+++ b/FedExApplication/src/TestFiles/FedExShipments_PreProd.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
+    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="185">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -494,6 +494,81 @@
   </si>
   <si>
     <t>320017962535</t>
+  </si>
+  <si>
+    <t>320017962708</t>
+  </si>
+  <si>
+    <t>320017962719</t>
+  </si>
+  <si>
+    <t>320017962741</t>
+  </si>
+  <si>
+    <t>320017962774</t>
+  </si>
+  <si>
+    <t>320017962811</t>
+  </si>
+  <si>
+    <t>320017962833</t>
+  </si>
+  <si>
+    <t>320017962866</t>
+  </si>
+  <si>
+    <t>320017962888</t>
+  </si>
+  <si>
+    <t>320017962936</t>
+  </si>
+  <si>
+    <t>320017962958</t>
+  </si>
+  <si>
+    <t>320017962991</t>
+  </si>
+  <si>
+    <t>320017963016</t>
+  </si>
+  <si>
+    <t>320017963049</t>
+  </si>
+  <si>
+    <t>320017963060</t>
+  </si>
+  <si>
+    <t>320017963093</t>
+  </si>
+  <si>
+    <t>320017963119</t>
+  </si>
+  <si>
+    <t>320017963152</t>
+  </si>
+  <si>
+    <t>320017963174</t>
+  </si>
+  <si>
+    <t>320017963200</t>
+  </si>
+  <si>
+    <t>320017963222</t>
+  </si>
+  <si>
+    <t>320017963255</t>
+  </si>
+  <si>
+    <t>320017963266</t>
+  </si>
+  <si>
+    <t>320017963288</t>
+  </si>
+  <si>
+    <t>320017963299</t>
+  </si>
+  <si>
+    <t>320017963314</t>
   </si>
 </sst>
 </file>
@@ -557,33 +632,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="8" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="8" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -636,7 +711,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -650,10 +725,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -811,7 +886,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -820,13 +895,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -836,7 +911,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -845,7 +920,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -854,7 +929,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -864,12 +939,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -900,7 +975,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -919,7 +994,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -931,8 +1006,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
@@ -1058,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -1111,7 +1186,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="Q3" t="s">
         <v>55</v>
@@ -1164,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="Q4" t="s">
         <v>56</v>
@@ -1217,7 +1292,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="Q5" t="s">
         <v>57</v>
@@ -1270,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Q6" t="s">
         <v>58</v>
@@ -1323,7 +1398,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -1376,7 +1451,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -1429,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="s">
         <v>59</v>
@@ -1482,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="Q10" t="s">
         <v>55</v>
@@ -1535,7 +1610,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="Q11" t="s">
         <v>60</v>
@@ -1588,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="Q12" t="s">
         <v>61</v>
@@ -1641,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="Q13" t="s">
         <v>62</v>
@@ -1694,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="Q14" t="s">
         <v>63</v>
@@ -1747,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="Q15" t="s">
         <v>64</v>
@@ -1800,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="Q16" t="s">
         <v>56</v>
@@ -1853,7 +1928,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q17" t="s">
         <v>65</v>
@@ -1906,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="Q18" t="s">
         <v>69</v>
@@ -1959,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="Q19" t="s">
         <v>66</v>
@@ -2012,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="Q20" t="s">
         <v>69</v>
@@ -2065,7 +2140,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="Q21" t="s">
         <v>67</v>
@@ -2118,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="Q22" t="s">
         <v>71</v>
@@ -2171,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="Q23" t="s">
         <v>72</v>
@@ -2224,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="Q24" t="s">
         <v>73</v>
@@ -2277,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="Q25" t="s">
         <v>61</v>
@@ -2330,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="Q26" t="s">
         <v>68</v>
@@ -2342,35 +2417,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R2:R7">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule dxfId="6" operator="equal" priority="7" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R24 R27:R1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule dxfId="5" operator="equal" priority="5" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule dxfId="4" operator="equal" priority="6" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule dxfId="3" operator="equal" priority="3" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule dxfId="2" operator="equal" priority="4" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>